--- a/Documents/Asp .Net Core & C# ESSPL.xlsx
+++ b/Documents/Asp .Net Core & C# ESSPL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESSPL\.Net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0376197e0be6b433/Desktop/New folder/DotNetTraining/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8A0CA-29FA-4E29-8AAC-A1E1829154A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B7D8A0CA-29FA-4E29-8AAC-A1E1829154A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C66C2B3-7EC0-42A5-8E74-1B79222DE5A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4237E46-2A5D-4BF7-8ECA-50C3849D207E}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Asp .Net Core" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="263">
   <si>
     <t>ASP.NET Core MVC – Basic</t>
   </si>
@@ -822,6 +821,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Intorduction to Source Control</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735BC78-8FEC-48FE-A487-4912DCEF36C0}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,7 +1596,9 @@
       <c r="B37" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="18" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
@@ -1611,25 +1615,25 @@
       <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>255</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>255</v>
@@ -1638,7 +1642,7 @@
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>255</v>
@@ -1647,7 +1651,7 @@
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>255</v>
@@ -1655,179 +1659,188 @@
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="17"/>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="18"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="18"/>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C57" s="18"/>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
-      <c r="B58" s="2"/>
       <c r="C58" s="18"/>
     </row>
     <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="18"/>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="17"/>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" s="18"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C64" s="18"/>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-      <c r="B65" s="2"/>
       <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="18"/>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="C68" s="18"/>
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="18"/>
+      <c r="C71" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Asp .Net Core & C# ESSPL.xlsx
+++ b/Documents/Asp .Net Core & C# ESSPL.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESSPL\.Net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESSPL\.Net\SampleApplication\DotNetTraining\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8A0CA-29FA-4E29-8AAC-A1E1829154A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B78C29-0BF2-4979-8FC5-31F4A78DF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4237E46-2A5D-4BF7-8ECA-50C3849D207E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{C4237E46-2A5D-4BF7-8ECA-50C3849D207E}"/>
   </bookViews>
   <sheets>
     <sheet name="OOPS with C#" sheetId="2" r:id="rId1"/>
     <sheet name="Asp .Net Core" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="263">
   <si>
     <t>ASP.NET Core MVC – Basic</t>
   </si>
@@ -822,6 +821,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735BC78-8FEC-48FE-A487-4912DCEF36C0}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,35 +1672,45 @@
       <c r="B47" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="18" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="18" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="18" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
@@ -1839,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC8804-38F0-42A3-9D6E-A882F890D5AC}">
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1868,37 +1880,54 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -1927,6 +1956,9 @@
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>

--- a/Documents/Asp .Net Core & C# ESSPL.xlsx
+++ b/Documents/Asp .Net Core & C# ESSPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESSPL\.Net\SampleApplication\DotNetTraining\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B78C29-0BF2-4979-8FC5-31F4A78DF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5925E-AB7C-4DC7-A23A-5CD7DB6A63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{C4237E46-2A5D-4BF7-8ECA-50C3849D207E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="237">
   <si>
     <t>ASP.NET Core MVC – Basic</t>
   </si>
@@ -58,12 +58,6 @@
     <t> Views in ASP.NET Core MVC</t>
   </si>
   <si>
-    <t> ASP.NET Core Dependency Injection</t>
-  </si>
-  <si>
-    <t> Singleton vs Scoped vs Transient Services in ASP.NET Core</t>
-  </si>
-  <si>
     <t>ASP.NET Core MVC – Data Passing Techniques</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t> TempData in ASP.NET Core MVC</t>
   </si>
   <si>
-    <t> Post-Redirect-Get (PRG) Pattern Example in ASP.NET Core</t>
-  </si>
-  <si>
     <t>ASP.NET Core MVC – Routing</t>
   </si>
   <si>
@@ -589,39 +580,6 @@
     <t> How to Send Email with Attachment in ASP.NET Core MVC</t>
   </si>
   <si>
-    <t>ASP.NET Core MVC – Advanced</t>
-  </si>
-  <si>
-    <t> ASP.NET Core MVC Request Life Cycle</t>
-  </si>
-  <si>
-    <t> ASP.NET Core MVC with EF Core DB First Approach</t>
-  </si>
-  <si>
-    <t> Bundling and Minification in ASP.NET Core MVC</t>
-  </si>
-  <si>
-    <t> Bundling and Minification in ASP.NET Core Using WebOptimizer</t>
-  </si>
-  <si>
-    <t> How to Host ASP.NET Core Web Application Into IIS Server</t>
-  </si>
-  <si>
-    <t> How to Use SSL in Local IIS Server</t>
-  </si>
-  <si>
-    <t> CRUD Operation on a Single Page in ASP.NET Core MVC</t>
-  </si>
-  <si>
-    <t> Cascading Dropdown List in ASP.NET Core MVC</t>
-  </si>
-  <si>
-    <t> ASP.NET Core Razor Pages Application</t>
-  </si>
-  <si>
-    <t>Deployment to IIS</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -733,42 +691,9 @@
     <t>File I/O</t>
   </si>
   <si>
-    <t>Specialized Namespace</t>
-  </si>
-  <si>
-    <t>What’s New in C# 8.0</t>
-  </si>
-  <si>
-    <t>Static Local Function</t>
-  </si>
-  <si>
-    <t>Range and Indices</t>
-  </si>
-  <si>
-    <t>Range Structure</t>
-  </si>
-  <si>
-    <t>Index Struct</t>
-  </si>
-  <si>
     <t>Debugging</t>
   </si>
   <si>
-    <t>ListDictionary Class</t>
-  </si>
-  <si>
-    <t>StringCollection Class</t>
-  </si>
-  <si>
-    <t>OrderedDictionary Class</t>
-  </si>
-  <si>
-    <t>HybridDictionary Class</t>
-  </si>
-  <si>
-    <t>StringDictionary Class</t>
-  </si>
-  <si>
     <t>Nullable Types</t>
   </si>
   <si>
@@ -821,9 +746,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735BC78-8FEC-48FE-A487-4912DCEF36C0}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,13 +1229,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1323,7 +1245,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="17"/>
@@ -1331,21 +1253,21 @@
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C6" s="18"/>
     </row>
@@ -1356,7 +1278,7 @@
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="17"/>
@@ -1364,42 +1286,42 @@
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C14" s="18"/>
     </row>
@@ -1410,7 +1332,7 @@
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -1418,203 +1340,203 @@
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="17"/>
@@ -1622,37 +1544,37 @@
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1662,7 +1584,7 @@
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="17"/>
@@ -1670,176 +1592,106 @@
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="18"/>
+        <v>216</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="18"/>
+        <v>232</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
       <c r="B58" s="2"/>
       <c r="C58" s="18"/>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="17"/>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" s="18"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C63" s="18"/>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C64" s="18"/>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="18"/>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="18"/>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="18"/>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC8804-38F0-42A3-9D6E-A882F890D5AC}">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1864,13 +1716,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1881,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1890,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1899,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1908,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1917,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1926,38 +1778,44 @@
         <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
+      <c r="C10" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="C11" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1965,51 +1823,72 @@
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
+      <c r="C19" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2017,49 +1896,67 @@
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C22" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C23" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10" t="s">
+      <c r="C27" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10"/>
+      <c r="C28" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="C29" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2067,72 +1964,102 @@
       <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="C31" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="C32" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="C33" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="C34" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C35" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="C36" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10" t="s">
+      <c r="C40" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
+      <c r="C41" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="19"/>
+      <c r="C42" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2140,123 +2067,180 @@
       <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C44" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C45" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C46" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C47" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4" t="s">
+      <c r="C49" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="6"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="C53" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
+      <c r="C54" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -2264,91 +2248,135 @@
       <c r="B65" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C65" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="11"/>
+      <c r="B68" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="12"/>
+      <c r="B70" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
+      <c r="C70" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="12"/>
+      <c r="B71" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="19"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="10" t="s">
-        <v>62</v>
+      <c r="C71" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="C73" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
       <c r="B74" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="C74" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="C75" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
       <c r="B76" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="C76" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="C77" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="12"/>
       <c r="B78" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="C78" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="12"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="12"/>
       <c r="B80" s="10" t="s">
         <v>70</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -2356,17 +2384,26 @@
       <c r="B81" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="C81" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="13"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="A83" s="12"/>
       <c r="B83" s="10" t="s">
         <v>73</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -2374,57 +2411,83 @@
       <c r="B84" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="C84" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="12"/>
       <c r="B85" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="C85" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="12"/>
       <c r="B86" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="C86" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="C87" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="12"/>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-      <c r="B90" s="10" t="s">
+      <c r="C90" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
+      <c r="C91" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="19"/>
+      <c r="C92" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="7"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="4" t="s">
         <v>82</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -2432,47 +2495,71 @@
       <c r="B94" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="C94" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C95" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="C96" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C97" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
       <c r="B98" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="C98" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
       <c r="B99" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C99" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="6"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
       <c r="B101" s="4" t="s">
         <v>90</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -2480,17 +2567,26 @@
       <c r="B102" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="C102" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="6"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A104" s="5"/>
       <c r="B104" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -2498,167 +2594,252 @@
       <c r="B105" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="C105" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="C106" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
-      <c r="B107" s="4" t="s">
+      <c r="A107" s="8"/>
+      <c r="C107" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="10"/>
+      <c r="C108" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="11"/>
+      <c r="B109" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="4" t="s">
+      <c r="C109" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="12"/>
+      <c r="B110" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
+      <c r="C110" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="12"/>
+      <c r="B111" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="19"/>
+      <c r="C111" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="11"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="12"/>
       <c r="B113" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="12"/>
       <c r="B114" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="12"/>
-      <c r="B115" s="10" t="s">
+      <c r="C114" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="13"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="12"/>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="10"/>
+      <c r="C116" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="11"/>
+      <c r="B117" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="12"/>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="12"/>
+      <c r="B118" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="13"/>
-      <c r="B118" s="10"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="9" t="s">
+      <c r="C118" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="12"/>
+      <c r="B119" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B119" s="10"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="11"/>
+      <c r="C119" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="12"/>
       <c r="B120" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C120" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="12"/>
       <c r="B121" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C121" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="12"/>
       <c r="B122" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C122" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="12"/>
       <c r="B123" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C123" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="12"/>
       <c r="B124" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C124" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="12"/>
       <c r="B125" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C125" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="12"/>
       <c r="B126" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C126" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="12"/>
       <c r="B127" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="12"/>
-      <c r="B128" s="10" t="s">
+      <c r="C127" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+      <c r="C128" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="12"/>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="4"/>
+      <c r="C129" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="7"/>
+      <c r="B130" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="12"/>
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="5"/>
+      <c r="B131" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="8"/>
+      <c r="C131" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5"/>
+      <c r="B132" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="19"/>
+      <c r="C132" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="7"/>
+      <c r="A133" s="5"/>
       <c r="B133" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -2666,279 +2847,420 @@
       <c r="B134" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="C134" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C135" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="C136" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C137" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="5"/>
       <c r="B138" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="C138" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="C139" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="C140" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="5"/>
       <c r="B141" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="C141" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C142" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C143" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="5"/>
       <c r="B144" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="5"/>
       <c r="B145" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="5"/>
       <c r="B147" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C147" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="5"/>
       <c r="B148" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C148" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C149" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
       <c r="B150" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C150" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C151" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C152" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
       <c r="B153" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C153" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
       <c r="B154" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C154" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="5"/>
       <c r="B155" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C155" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="5"/>
       <c r="B156" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C156" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="5"/>
       <c r="B157" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C157" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="5"/>
       <c r="B158" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C158" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="5"/>
       <c r="B159" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C159" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="5"/>
       <c r="B160" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C160" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="5"/>
       <c r="B161" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C161" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="5"/>
       <c r="B162" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C162" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="5"/>
       <c r="B163" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C163" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="5"/>
       <c r="B164" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C164" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="5"/>
       <c r="B165" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C165" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="5"/>
       <c r="B166" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C166" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="5"/>
       <c r="B167" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C167" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="5"/>
       <c r="B168" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C168" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="5"/>
       <c r="B169" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C169" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="5"/>
       <c r="B170" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C170" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="5"/>
       <c r="B171" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C171" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="5"/>
       <c r="B172" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C172" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="5"/>
       <c r="B173" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C173" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="5"/>
       <c r="B174" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C174" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="5"/>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="4"/>
+      <c r="C175" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="5"/>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="4"/>
+      <c r="C176" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="7"/>
+      <c r="B177" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="5"/>
-      <c r="B177" s="4" t="s">
-        <v>163</v>
+      <c r="C177" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="5"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="5"/>
+      <c r="B179" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B179" s="4"/>
+      <c r="C179" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="7"/>
+      <c r="A180" s="5"/>
       <c r="B180" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -2946,39 +3268,59 @@
       <c r="B181" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="C181" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="5"/>
-      <c r="B182" s="4" t="s">
+      <c r="A182" s="8"/>
+      <c r="C182" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="5"/>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="10"/>
+      <c r="C183" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="11"/>
+      <c r="B184" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="5"/>
-      <c r="B184" s="4" t="s">
+      <c r="C184" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="12"/>
+      <c r="B185" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="8"/>
+      <c r="C185" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="12"/>
+      <c r="B186" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B186" s="10"/>
-      <c r="C186" s="19"/>
+      <c r="C186" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="11"/>
+      <c r="A187" s="12"/>
       <c r="B187" s="10" t="s">
         <v>171</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -2986,149 +3328,84 @@
       <c r="B188" s="10" t="s">
         <v>172</v>
       </c>
+      <c r="C188" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="12"/>
       <c r="B189" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="C189" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="12"/>
       <c r="B190" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="C190" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="12"/>
       <c r="B191" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="C191" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="12"/>
       <c r="B192" s="10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C192" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="12"/>
       <c r="B193" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C193" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="12"/>
       <c r="B194" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C194" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="12"/>
       <c r="B195" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C195" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="12"/>
       <c r="B196" s="10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="12"/>
-      <c r="B197" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="12"/>
-      <c r="B198" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="12"/>
-      <c r="B199" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="13"/>
-      <c r="B200" s="10"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B201" s="10"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="11"/>
-      <c r="B202" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="12"/>
-      <c r="B203" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="12"/>
-      <c r="B204" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="12"/>
-      <c r="B205" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="12"/>
-      <c r="B206" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="12"/>
-      <c r="B207" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="12"/>
-      <c r="B208" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="12"/>
-      <c r="B209" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="12"/>
-      <c r="B210" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="12"/>
-      <c r="B211" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="12"/>
-      <c r="B212" s="10"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C214" s="19"/>
+      <c r="C196" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C198" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
